--- a/work/Insure_auto.xlsx
+++ b/work/Insure_auto.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="315" windowWidth="20835" windowHeight="9765"/>
   </bookViews>
   <sheets>
-    <sheet name="Insure_auto" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Insure_auto" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Branch</t>
   </si>
@@ -56,13 +57,94 @@
   </si>
   <si>
     <t>B10</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home </t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>op. cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +280,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -380,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -495,6 +585,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -540,8 +650,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -616,8 +734,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29741666666666666"/>
-          <c:y val="0"/>
+          <c:x val="0.37752077865266842"/>
+          <c:y val="2.7777777777777776E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -633,11 +751,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Insure_auto!$D$1</c:f>
+              <c:f>Insure_auto!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Operating_Cost</c:v>
+                  <c:v>Automobile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -688,39 +806,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Insure_auto!$D$2:$D$11</c:f>
+              <c:f>Insure_auto!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>124000</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71000</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>136000</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>219000</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>230000</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56000</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>110000</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>120000</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>144000</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -735,11 +853,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="49206016"/>
-        <c:axId val="49204224"/>
+        <c:axId val="131370368"/>
+        <c:axId val="131380352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49206016"/>
+        <c:axId val="131370368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,12 +867,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49204224"/>
+        <c:crossAx val="131380352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49204224"/>
+        <c:axId val="131380352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,7 +883,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49206016"/>
+        <c:crossAx val="131370368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -802,196 +920,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.37752077865266842"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Insure_auto!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Automobile</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Insure_auto!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Insure_auto!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="148538880"/>
-        <c:axId val="148537344"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="148538880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148537344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="148537344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148538880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -1108,11 +1036,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="96320128"/>
-        <c:axId val="96318592"/>
+        <c:axId val="131009152"/>
+        <c:axId val="131015040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96320128"/>
+        <c:axId val="131009152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,12 +1050,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96318592"/>
+        <c:crossAx val="131015040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96318592"/>
+        <c:axId val="131015040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96320128"/>
+        <c:crossAx val="131009152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1164,36 +1092,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -1216,7 +1114,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1246,7 +1144,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1542,10 +1440,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.99835784013100448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.99671837695104437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.9957807703656284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3790.5300047037235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30547923175.984085</v>
+      </c>
+      <c r="D12" s="1">
+        <v>15273961587.992043</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1063.0454099348622</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.0244657174859571E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>100576824.01591447</v>
+      </c>
+      <c r="D13" s="1">
+        <v>14368117.716559211</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>30648500000</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-10084.213130948716</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3504.1812007963858</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-2.8777658896911222</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.3727194555066566E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-18370.284980327378</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-1798.1412815700551</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-18370.284980327378</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-1798.1412815700551</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>167.32668857228609</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5.8954515721730667</v>
+      </c>
+      <c r="D18" s="1">
+        <v>28.382336200008744</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.7327943006248254E-8</v>
+      </c>
+      <c r="F18" s="1">
+        <v>153.38616081063483</v>
+      </c>
+      <c r="G18" s="1">
+        <v>181.26721633393734</v>
+      </c>
+      <c r="H18" s="1">
+        <v>153.38616081063483</v>
+      </c>
+      <c r="I18" s="1">
+        <v>181.26721633393734</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>54.105292285400125</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3.6558711208408856</v>
+      </c>
+      <c r="D19" s="2">
+        <v>14.799562264917967</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.5399743823694121E-6</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45.46053077236207</v>
+      </c>
+      <c r="G19" s="2">
+        <v>62.750053798438181</v>
+      </c>
+      <c r="H19" s="2">
+        <v>45.46053077236207</v>
+      </c>
+      <c r="I19" s="2">
+        <v>62.750053798438181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24">
+        <f>B17+SUMPRODUCT(B18:B19,K22:K23)</f>
+        <v>39362.171683324254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
